--- a/GUATEMALA/Delitos/Delitos_Mujeres_Nacional_Guatemala.xlsx
+++ b/GUATEMALA/Delitos/Delitos_Mujeres_Nacional_Guatemala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\BBDD CENTROAMERICA\GUATEMALA\Delitos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\BBDD-CENTROAMERICA\GUATEMALA\Delitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AC204B-BED3-44E4-8B7E-87D955CF3278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939181B9-6FDC-4040-8A3B-E7D72173D3F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D69FD2C4-B86E-44C6-A0A0-BAF7E0DF2DCE}"/>
   </bookViews>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1416198-DFF2-4EB2-AC6E-A3AFFF68E6F0}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GUATEMALA/Delitos/Delitos_Mujeres_Nacional_Guatemala.xlsx
+++ b/GUATEMALA/Delitos/Delitos_Mujeres_Nacional_Guatemala.xlsx
@@ -5,20 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\BBDD-CENTROAMERICA\GUATEMALA\Delitos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\GUATEMALA\Delitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939181B9-6FDC-4040-8A3B-E7D72173D3F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCD7DF5-7932-47EB-B975-E7639AFAA415}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D69FD2C4-B86E-44C6-A0A0-BAF7E0DF2DCE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{D69FD2C4-B86E-44C6-A0A0-BAF7E0DF2DCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -129,15 +138,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -151,7 +167,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4258A54D-D471-4798-8BEB-68D76A8C14FA}" name="Delitos_Mujeres_Guatemala" displayName="Delitos_Mujeres_Guatemala" ref="A1:J28" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4258A54D-D471-4798-8BEB-68D76A8C14FA}" name="Delitos_Mujeres_Guatemala" displayName="Delitos_Mujeres_Guatemala" ref="A1:J28" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:J28" xr:uid="{42959574-1154-4A36-8D58-142693A09F84}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{2A1093A0-73EA-4D97-9B21-35469D6CC90A}" name="Año"/>
@@ -469,55 +485,55 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="35" customWidth="1"/>
-    <col min="5" max="5" width="44.7109375" customWidth="1"/>
-    <col min="6" max="6" width="31.140625" customWidth="1"/>
-    <col min="7" max="7" width="23.42578125" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" customWidth="1"/>
-    <col min="9" max="9" width="44" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="5" max="5" width="28.5546875" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -549,7 +565,7 @@
         <v>32051</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -581,7 +597,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -613,7 +629,7 @@
         <v>24180</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -645,7 +661,7 @@
         <v>10378</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -677,7 +693,7 @@
         <v>8947</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -709,7 +725,7 @@
         <v>4425</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -741,7 +757,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2018</v>
       </c>
@@ -773,7 +789,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2018</v>
       </c>
@@ -805,7 +821,7 @@
         <v>82026</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2019</v>
       </c>
@@ -837,7 +853,7 @@
         <v>33715</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>2019</v>
       </c>
@@ -869,7 +885,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>2019</v>
       </c>
@@ -901,7 +917,7 @@
         <v>24080</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>2019</v>
       </c>
@@ -933,7 +949,7 @@
         <v>10212</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>2019</v>
       </c>
@@ -965,7 +981,7 @@
         <v>9056</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>2019</v>
       </c>
@@ -997,7 +1013,7 @@
         <v>4673</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>2019</v>
       </c>
@@ -1029,7 +1045,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>2019</v>
       </c>
@@ -1061,7 +1077,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2019</v>
       </c>
@@ -1101,7 +1117,7 @@
         <v>83731</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>2020</v>
       </c>
@@ -1133,7 +1149,7 @@
         <v>24500</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>2020</v>
       </c>
@@ -1165,7 +1181,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>2020</v>
       </c>
@@ -1197,7 +1213,7 @@
         <v>16811</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>2020</v>
       </c>
@@ -1229,7 +1245,7 @@
         <v>6013</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>2020</v>
       </c>
@@ -1261,7 +1277,7 @@
         <v>5928</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>2020</v>
       </c>
@@ -1293,7 +1309,7 @@
         <v>2966</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>2020</v>
       </c>
@@ -1325,7 +1341,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2020</v>
       </c>
@@ -1357,7 +1373,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2020</v>
       </c>
@@ -1397,12 +1413,12 @@
         <v>57498</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>20</v>
       </c>

--- a/GUATEMALA/Delitos/Delitos_Mujeres_Nacional_Guatemala.xlsx
+++ b/GUATEMALA/Delitos/Delitos_Mujeres_Nacional_Guatemala.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\BBDD-CENTROAMERICA\GUATEMALA\Delitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1263566-0C46-4C43-B759-84E86FF9B7B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD60E722-2106-481C-B18C-0C6F3B168FE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D69FD2C4-B86E-44C6-A0A0-BAF7E0DF2DCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D69FD2C4-B86E-44C6-A0A0-BAF7E0DF2DCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="24">
   <si>
     <t>Año</t>
   </si>
@@ -175,6 +176,19 @@
     <tableColumn id="28" xr3:uid="{7359416D-3D5B-4679-979B-BA0BF6B09451}" name="Delito"/>
     <tableColumn id="3" xr3:uid="{9CD37C0D-C15E-49A5-A90E-7BDA8E86F2F0}" name="Acciones en el Sistema Judicial" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{7BBD6D46-45B3-42D6-B00B-65BE6D17B73D}" name="Cantidad"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1CE01DED-470F-4142-A9CA-244DF5EDBFA3}" name="Femicidios_Judicial_GT" displayName="Femicidios_Judicial_GT" ref="A1:D25" totalsRowShown="0">
+  <autoFilter ref="A1:D25" xr:uid="{3C564377-C3A3-499C-84D0-64D58B4B23FC}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{F91A79DF-9020-4DE0-89B0-A97E707E743E}" name="Año"/>
+    <tableColumn id="2" xr3:uid="{1E31ADA2-65F1-4E9E-A05E-8A994435F680}" name="Delito"/>
+    <tableColumn id="3" xr3:uid="{01D45E16-B580-4D8B-9B89-4CD14DADF391}" name="Acciones en el Sistema Judicial"/>
+    <tableColumn id="4" xr3:uid="{ABD8E23B-D708-40F1-8122-7B9E7A23EF05}" name="Cantidad"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -479,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1416198-DFF2-4EB2-AC6E-A3AFFF68E6F0}">
   <dimension ref="A1:F241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3876,4 +3890,375 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087DF09C-385C-49A3-BB25-E725CFB0BF84}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2018</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2019</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2020</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2018</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2019</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2020</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2018</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2019</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2020</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2018</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2019</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2020</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2018</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2019</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2020</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2018</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2019</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2020</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2018</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2019</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2020</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2018</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2019</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2020</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>362</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>